--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_376__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_376__Reeval_Halton_Modell_1.1.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>51.7124137878418</c:v>
+                  <c:v>51.71241760253906</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42.46171951293945</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>59.05325698852539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.071545124053955</c:v>
+                  <c:v>4.071549892425537</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>49.12409210205078</c:v>
@@ -6011,19 +6011,19 @@
                   <c:v>2.618132591247559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.774790525436401</c:v>
+                  <c:v>2.774787902832031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.06051063537598</c:v>
+                  <c:v>16.06050872802734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.60595703125</c:v>
+                  <c:v>50.60595321655273</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.074680805206299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.606475114822388</c:v>
+                  <c:v>2.606472730636597</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>51.08749008178711</c:v>
@@ -6035,7 +6035,7 @@
                   <c:v>3.815749406814575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.398112028837204</c:v>
+                  <c:v>0.3981144726276398</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45.78211212158203</c:v>
@@ -6044,10 +6044,10 @@
                   <c:v>2.748175382614136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.509267807006836</c:v>
+                  <c:v>2.509265422821045</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.8321647644043</c:v>
+                  <c:v>40.83216857910156</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.039357900619507</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>48.29189682006836</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.530826568603516</c:v>
+                  <c:v>4.530821800231934</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.831804990768433</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>42.36204147338867</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.53585052490234</c:v>
+                  <c:v>40.53584671020508</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.039357900619507</c:v>
@@ -6092,7 +6092,7 @@
                   <c:v>2.478986263275146</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.921905517578125</c:v>
+                  <c:v>1.921907901763916</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2.039357900619507</c:v>
@@ -6110,13 +6110,13 @@
                   <c:v>44.24806976318359</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.779173970222473</c:v>
+                  <c:v>1.779171466827393</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.807864189147949</c:v>
+                  <c:v>1.80786657333374</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.132798075675964</c:v>
+                  <c:v>-1.132793188095093</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.781452894210815</c:v>
@@ -6131,13 +6131,13 @@
                   <c:v>35.99087142944336</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.160921096801758</c:v>
+                  <c:v>2.160923480987549</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>51.92146301269531</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.043800234794617</c:v>
+                  <c:v>1.043797850608826</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>39.17486953735352</c:v>
@@ -6158,28 +6158,28 @@
                   <c:v>45.29941177368164</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.130629539489746</c:v>
+                  <c:v>3.130624771118164</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2.570098638534546</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41.74325942993164</c:v>
+                  <c:v>41.74325180053711</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2.039357900619507</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40.41420745849609</c:v>
+                  <c:v>40.41421127319336</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.037604331970215</c:v>
+                  <c:v>4.037601947784424</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>37.26884841918945</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>46.48483276367188</c:v>
+                  <c:v>46.48483657836914</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2.039357900619507</c:v>
@@ -6188,10 +6188,10 @@
                   <c:v>25.39998245239258</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>39.3553466796875</c:v>
+                  <c:v>39.35535049438477</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.963623046875</c:v>
+                  <c:v>44.96361923217773</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>43.47850799560547</c:v>
@@ -6215,7 +6215,7 @@
                   <c:v>2.039357900619507</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.279269695281982</c:v>
+                  <c:v>4.279272079467773</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>47.65138244628906</c:v>
@@ -6251,22 +6251,22 @@
                   <c:v>43.50027847290039</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.999147653579712</c:v>
+                  <c:v>3.999150276184082</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2.613012313842773</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.05487060546875</c:v>
+                  <c:v>-1.054873108863831</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.016644716262817</c:v>
+                  <c:v>3.016642332077026</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>50.08174896240234</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.737988948822021</c:v>
+                  <c:v>2.737991333007812</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>2.532312393188477</c:v>
@@ -6275,13 +6275,13 @@
                   <c:v>45.73821258544922</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.727881193161011</c:v>
+                  <c:v>2.727886199951172</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>49.30223083496094</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36.2984619140625</c:v>
+                  <c:v>36.29845428466797</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2.915127754211426</c:v>
@@ -6979,7 +6979,7 @@
         <v>51.7318</v>
       </c>
       <c r="F2">
-        <v>51.7124137878418</v>
+        <v>51.71241760253906</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.071545124053955</v>
+        <v>4.071549892425537</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.774790525436401</v>
+        <v>2.774787902832031</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.06051063537598</v>
+        <v>16.06050872802734</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>50.60595703125</v>
+        <v>50.60595321655273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.606475114822388</v>
+        <v>2.606472730636597</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.398112028837204</v>
+        <v>0.3981144726276398</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.509267807006836</v>
+        <v>2.509265422821045</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>40.8321647644043</v>
+        <v>40.83216857910156</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.530826568603516</v>
+        <v>4.530821800231934</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>40.53585052490234</v>
+        <v>40.53584671020508</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.921905517578125</v>
+        <v>1.921907901763916</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>1.779173970222473</v>
+        <v>1.779171466827393</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.807864189147949</v>
+        <v>1.80786657333374</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-1.132798075675964</v>
+        <v>-1.132793188095093</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.160921096801758</v>
+        <v>2.160923480987549</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.043800234794617</v>
+        <v>1.043797850608826</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>3.130629539489746</v>
+        <v>3.130624771118164</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>41.74325942993164</v>
+        <v>41.74325180053711</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>40.41420745849609</v>
+        <v>40.41421127319336</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>4.037604331970215</v>
+        <v>4.037601947784424</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>46.48483276367188</v>
+        <v>46.48483657836914</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>39.3553466796875</v>
+        <v>39.35535049438477</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>44.963623046875</v>
+        <v>44.96361923217773</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>4.279269695281982</v>
+        <v>4.279272079467773</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3.999147653579712</v>
+        <v>3.999150276184082</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>-1.05487060546875</v>
+        <v>-1.054873108863831</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3.016644716262817</v>
+        <v>3.016642332077026</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.737988948822021</v>
+        <v>2.737991333007812</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2.727881193161011</v>
+        <v>2.727886199951172</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>36.2984619140625</v>
+        <v>36.29845428466797</v>
       </c>
     </row>
     <row r="101" spans="1:6">
